--- a/data/data_raw/eurostat/AT_lorries_road_eqr_lormot.xlsx
+++ b/data/data_raw/eurostat/AT_lorries_road_eqr_lormot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Liquefied natural gas (LNG) [LNG]</t>
+          <t>Other [OTH]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2240,17 +2240,39 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2273,7 +2295,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Liquefied natural gas (LNG) [LNG]</t>
+          <t>Other [OTH]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2281,141 +2303,37 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>LOR_GT3P5</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>NR</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Other [OTH]</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>AT</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>VG_LE3P5</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>NR</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Other [OTH]</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>AT</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
+      <c r="G31" t="n">
         <v>119</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H31" t="n">
         <v>82</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I31" t="n">
         <v>75</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J31" t="n">
         <v>68</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K31" t="n">
         <v>44</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L31" t="n">
         <v>29</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M31" t="n">
         <v>32</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N31" t="n">
         <v>37</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O31" t="n">
         <v>106</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P31" t="n">
         <v>15</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q31" t="n">
         <v>16</v>
       </c>
     </row>
